--- a/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
+++ b/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\Exercicios\Módulo 4 - Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE1B630-E6B2-4F85-A168-6A741EFA380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BC22AE-7F9D-48A5-815C-78743F4D9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="978" firstSheet="5" activeTab="14" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
+    <workbookView xWindow="11316" yWindow="0" windowWidth="11724" windowHeight="12792" tabRatio="978" firstSheet="5" activeTab="6" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl T" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Shift Espaço'!$A$1:$C$250</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
     <definedName name="Titulo">'Ctrl Shift Seta'!$A$1:$C$1</definedName>
+    <definedName name="Título">'Ctrl T'!$A$1:$C$1</definedName>
     <definedName name="Valores_venda">'Ctrl Shift Seta'!$C$2:$C$250</definedName>
+    <definedName name="Vendas">'Ctrl T'!$C$2:$C$250</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="90">
   <si>
     <t>Vendedor</t>
   </si>
@@ -338,6 +340,12 @@
   <si>
     <t>maria.tavares@hashtagtreinamentos.com.br</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
@@ -346,9 +354,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="166" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +395,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +483,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -495,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -567,15 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -608,7 +621,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -620,8 +633,26 @@
     <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,15 +1703,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85145</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85145</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1717,8 +1748,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5097780" y="853440"/>
-              <a:ext cx="1828800" cy="2466975"/>
+              <a:off x="4140310" y="116840"/>
+              <a:ext cx="1828800" cy="2486301"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2117,9 +2148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFAF8D-2AFB-41DE-9B55-3F3D10E35951}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2128,2753 +2161,2790 @@
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
         <v>43983</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34">
         <v>9804</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
         <v>43983</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34">
         <v>4783</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
         <v>43983</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34">
         <v>9603</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
         <v>43983</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="34">
         <v>9785</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>43983</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34">
         <v>4127</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
         <v>43983</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34">
         <v>3397</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>43983</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34">
         <v>1579</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
         <v>43983</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="34">
         <v>5191</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
         <v>43983</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="34">
         <v>4676</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
         <v>43983</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="34">
         <v>5244</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
         <v>43984</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34">
         <v>1736</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
         <v>43984</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
         <v>7793</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
         <v>43984</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="34">
         <v>7776</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
         <v>43984</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="34">
         <v>7313</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
         <v>43984</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="34">
         <v>9529</v>
       </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="32">
         <v>43984</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="34">
         <v>3567</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="32">
         <v>43984</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="34">
         <v>5168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="32">
         <v>43984</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="34">
         <v>1551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="32">
         <v>43984</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="34">
         <v>6125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="32">
         <v>43985</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="34">
         <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="32">
         <v>43985</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="34">
         <v>4944</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="32">
         <v>43985</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="34">
         <v>8224</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="32">
         <v>43985</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="34">
         <v>9519</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="32">
         <v>43985</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="34">
         <v>7834</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="32">
         <v>43985</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="34">
         <v>9533</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="32">
         <v>43985</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="34">
         <v>4813</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="32">
         <v>43985</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="34">
         <v>2182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="32">
         <v>43985</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="34">
         <v>9483</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="32">
         <v>43985</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="34">
         <v>1600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="32">
         <v>43985</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="34">
         <v>4069</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="32">
         <v>43985</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="34">
         <v>6393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="32">
         <v>43985</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="34">
         <v>7917</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="32">
         <v>43985</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="34">
         <v>5496</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="32">
         <v>43986</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="34">
         <v>7494</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="32">
         <v>43986</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="34">
         <v>8878</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="32">
         <v>43986</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="34">
         <v>9982</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="32">
         <v>43987</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="34">
         <v>4271</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="32">
         <v>43987</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="34">
         <v>5016</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="32">
         <v>43987</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="34">
         <v>5939</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="32">
         <v>43987</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="34">
         <v>7038</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="32">
         <v>43987</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="34">
         <v>8788</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="32">
         <v>43987</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="34">
         <v>3856</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="32">
         <v>43987</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="34">
         <v>8528</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="32">
         <v>43987</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B45" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="34">
         <v>5912</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="32">
         <v>43988</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="34">
         <v>1412</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="32">
         <v>43988</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="34">
         <v>6728</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="32">
         <v>43988</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="34">
         <v>5445</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="32">
         <v>43988</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B49" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="34">
         <v>7977</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="32">
         <v>43988</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B50" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="34">
         <v>7015</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="32">
         <v>43988</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="34">
         <v>2240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="32">
         <v>43988</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B52" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="34">
         <v>2647</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="32">
         <v>43988</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B53" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="34">
         <v>7652</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="32">
         <v>43989</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="34">
         <v>9489</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="32">
         <v>43989</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B55" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="34">
         <v>3635</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="32">
         <v>43989</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B56" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="34">
         <v>1701</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="32">
         <v>43989</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B57" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="34">
         <v>3009</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="32">
         <v>43989</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="B58" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="34">
         <v>5985</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="32">
         <v>43989</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="B59" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="34">
         <v>5197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="32">
         <v>43989</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B60" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="34">
         <v>9786</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="32">
         <v>43989</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="B61" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="34">
         <v>7112</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="32">
         <v>43989</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B62" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="34">
         <v>8425</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="32">
         <v>43989</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B63" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="34">
         <v>7871</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="32">
         <v>43989</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="B64" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="34">
         <v>2041</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="32">
         <v>43989</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="B65" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="34">
         <v>1986</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="32">
         <v>43989</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="B66" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="34">
         <v>8743</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="32">
         <v>43990</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B67" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="34">
         <v>2031</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="32">
         <v>43990</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="B68" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="34">
         <v>6428</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="32">
         <v>43990</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="2">
+      <c r="B69" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="34">
         <v>2270</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="32">
         <v>43991</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="2">
+      <c r="B70" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="34">
         <v>9406</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="32">
         <v>43991</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B71" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="34">
         <v>3282</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="32">
         <v>43991</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B72" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="34">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="32">
         <v>43991</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="B73" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="34">
         <v>1246</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="32">
         <v>43991</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="B74" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="34">
         <v>7681</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="32">
         <v>43991</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="B75" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="34">
         <v>9067</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="32">
         <v>43991</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="B76" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="34">
         <v>2469</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="32">
         <v>43991</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="B77" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="34">
         <v>9268</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="32">
         <v>43991</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="B78" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="34">
         <v>5195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="32">
         <v>43991</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B79" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="34">
         <v>6202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="32">
         <v>43991</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B80" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="34">
         <v>5421</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="32">
         <v>43992</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B81" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="34">
         <v>4820</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="32">
         <v>43992</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="B82" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="34">
         <v>2018</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="32">
         <v>43992</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B83" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="34">
         <v>9142</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="32">
         <v>43992</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B84" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="34">
         <v>1696</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="32">
         <v>43992</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B85" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="34">
         <v>4645</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="32">
         <v>43992</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="B86" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="34">
         <v>6194</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="32">
         <v>43992</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="B87" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="34">
         <v>8063</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="32">
         <v>43992</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B88" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="34">
         <v>4375</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="32">
         <v>43992</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B89" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="34">
         <v>8384</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="32">
         <v>43992</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B90" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="34">
         <v>9438</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="32">
         <v>43992</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="B91" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="34">
         <v>9533</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="32">
         <v>43992</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="B92" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="34">
         <v>3367</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="32">
         <v>43993</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="2">
+      <c r="B93" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="34">
         <v>4915</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="32">
         <v>43993</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B94" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="34">
         <v>7484</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="32">
         <v>43993</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2">
+      <c r="B95" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="34">
         <v>9495</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="32">
         <v>43993</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B96" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="34">
         <v>5840</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="32">
         <v>43993</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2">
+      <c r="B97" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="34">
         <v>5542</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="32">
         <v>43993</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="B98" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="34">
         <v>8998</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="32">
         <v>43993</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="2">
+      <c r="B99" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="34">
         <v>1112</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="32">
         <v>43993</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B100" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="34">
         <v>7593</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="32">
         <v>43993</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="2">
+      <c r="B101" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="34">
         <v>9092</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="32">
         <v>43993</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B102" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="34">
         <v>9454</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="32">
         <v>43993</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="B103" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="34">
         <v>5124</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="32">
         <v>43993</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B104" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="34">
         <v>9190</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="32">
         <v>43994</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B105" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="34">
         <v>7253</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="32">
         <v>43994</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="B106" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="34">
         <v>4347</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="32">
         <v>43994</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="B107" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="34">
         <v>9938</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="32">
         <v>43994</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="2">
+      <c r="B108" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="34">
         <v>2762</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="32">
         <v>43994</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2">
+      <c r="B109" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="34">
         <v>4695</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="32">
         <v>43994</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B110" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="34">
         <v>3509</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="32">
         <v>43994</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="B111" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="34">
         <v>7441</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="32">
         <v>43994</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="2">
+      <c r="B112" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="34">
         <v>9705</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="32">
         <v>43995</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="2">
+      <c r="B113" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="34">
         <v>3849</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="32">
         <v>43995</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2">
+      <c r="B114" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="34">
         <v>4891</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="32">
         <v>43995</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="2">
+      <c r="B115" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="34">
         <v>4021</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="32">
         <v>43995</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="B116" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="34">
         <v>9514</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="32">
         <v>43995</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="2">
+      <c r="B117" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="34">
         <v>9722</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="32">
         <v>43995</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2">
+      <c r="B118" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="34">
         <v>1336</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="32">
         <v>43995</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2">
+      <c r="B119" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="34">
         <v>2180</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="32">
         <v>43996</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="2">
+      <c r="B120" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="34">
         <v>7739</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="32">
         <v>43996</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="34">
         <v>7148</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="32">
         <v>43996</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="2">
+      <c r="B122" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="34">
         <v>1241</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="32">
         <v>43996</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="B123" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="34">
         <v>7762</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="32">
         <v>43996</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="2">
+      <c r="B124" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="34">
         <v>7250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="32">
         <v>43996</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="2">
+      <c r="B125" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="34">
         <v>9140</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="32">
         <v>43996</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="2">
+      <c r="B126" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="34">
         <v>7747</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="32">
         <v>43996</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="2">
+      <c r="B127" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="34">
         <v>4915</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="32">
         <v>43997</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="2">
+      <c r="B128" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="34">
         <v>1232</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="32">
         <v>43997</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="2">
+      <c r="B129" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="34">
         <v>8287</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="32">
         <v>43997</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="2">
+      <c r="B130" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="34">
         <v>5547</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="32">
         <v>43997</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="B131" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="34">
         <v>1740</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="32">
         <v>43997</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="B132" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="34">
         <v>3299</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="32">
         <v>43997</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="2">
+      <c r="B133" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="34">
         <v>2873</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="32">
         <v>43997</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="2">
+      <c r="B134" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="34">
         <v>3801</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="32">
         <v>43997</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B135" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="34">
         <v>6374</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="32">
         <v>43998</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="2">
+      <c r="B136" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="34">
         <v>5172</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="32">
         <v>43998</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="B137" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="34">
         <v>9230</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="32">
         <v>43998</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="2">
+      <c r="B138" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="34">
         <v>4532</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="32">
         <v>43998</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="2">
+      <c r="B139" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="34">
         <v>3762</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="32">
         <v>43998</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="2">
+      <c r="B140" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="34">
         <v>3285</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="32">
         <v>43998</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="2">
+      <c r="B141" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="34">
         <v>9775</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="32">
         <v>43998</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="2">
+      <c r="B142" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="34">
         <v>4470</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="32">
         <v>43998</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="B143" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="34">
         <v>6690</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="32">
         <v>43998</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="B144" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="34">
         <v>6282</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="32">
         <v>43998</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="2">
+      <c r="B145" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="34">
         <v>6208</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="32">
         <v>43998</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="2">
+      <c r="B146" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="34">
         <v>8457</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="32">
         <v>43999</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="B147" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="34">
         <v>6130</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="32">
         <v>43999</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="2">
+      <c r="B148" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="34">
         <v>7027</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="32">
         <v>43999</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="2">
+      <c r="B149" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="34">
         <v>8514</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="32">
         <v>43999</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="2">
+      <c r="B150" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="34">
         <v>7439</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="32">
         <v>43999</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="2">
+      <c r="B151" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="34">
         <v>2070</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="32">
         <v>43999</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="2">
+      <c r="B152" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="34">
         <v>1523</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="32">
         <v>43999</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="2">
+      <c r="B153" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="34">
         <v>6721</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="32">
         <v>44000</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" s="2">
+      <c r="B154" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="34">
         <v>4103</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="32">
         <v>44000</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="2">
+      <c r="B155" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="34">
         <v>8342</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="32">
         <v>44000</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="2">
+      <c r="B156" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="34">
         <v>8324</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="32">
         <v>44000</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="2">
+      <c r="B157" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="34">
         <v>2910</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="32">
         <v>44000</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="2">
+      <c r="B158" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="34">
         <v>5255</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="32">
         <v>44000</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="2">
+      <c r="B159" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="34">
         <v>3227</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="32">
         <v>44000</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="2">
+      <c r="B160" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="34">
         <v>6999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="32">
         <v>44000</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" s="2">
+      <c r="B161" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="34">
         <v>5210</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="32">
         <v>44000</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="2">
+      <c r="B162" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="34">
         <v>3086</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="32">
         <v>44000</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="2">
+      <c r="B163" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="34">
         <v>4576</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="32">
         <v>44000</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="2">
+      <c r="B164" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="34">
         <v>3747</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="32">
         <v>44000</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="2">
+      <c r="B165" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="34">
         <v>4978</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="32">
         <v>44001</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="2">
+      <c r="B166" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="34">
         <v>7890</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="32">
         <v>44001</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="2">
+      <c r="B167" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="34">
         <v>6731</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="32">
         <v>44001</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="2">
+      <c r="B168" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="34">
         <v>3555</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="32">
         <v>44001</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="2">
+      <c r="B169" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="34">
         <v>5618</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="32">
         <v>44001</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="2">
+      <c r="B170" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="34">
         <v>7558</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="32">
         <v>44001</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="2">
+      <c r="B171" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="34">
         <v>2167</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="32">
         <v>44001</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" s="2">
+      <c r="B172" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="34">
         <v>4293</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="32">
         <v>44001</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="2">
+      <c r="B173" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="34">
         <v>5744</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="32">
         <v>44002</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="2">
+      <c r="B174" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="34">
         <v>9941</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="32">
         <v>44002</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="2">
+      <c r="B175" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="34">
         <v>7747</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="32">
         <v>44002</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="2">
+      <c r="B176" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="34">
         <v>7980</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="32">
         <v>44002</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="2">
+      <c r="B177" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="34">
         <v>6963</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="32">
         <v>44002</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="2">
+      <c r="B178" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="34">
         <v>8321</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="32">
         <v>44002</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="2">
+      <c r="B179" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="34">
         <v>1506</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="32">
         <v>44002</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="2">
+      <c r="B180" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="34">
         <v>2856</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181" s="32">
         <v>44002</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="2">
+      <c r="B181" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="34">
         <v>7080</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="32">
         <v>44002</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="2">
+      <c r="B182" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="34">
         <v>1148</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183" s="32">
         <v>44002</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="2">
+      <c r="B183" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="34">
         <v>5620</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="32">
         <v>44002</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" s="2">
+      <c r="B184" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="34">
         <v>8004</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185" s="32">
         <v>44003</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="2">
+      <c r="B185" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="34">
         <v>7852</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="32">
         <v>44003</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="2">
+      <c r="B186" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="34">
         <v>8355</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187" s="32">
         <v>44003</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="2">
+      <c r="B187" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="34">
         <v>8946</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="32">
         <v>44003</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="2">
+      <c r="B188" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="34">
         <v>4936</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="32">
         <v>44003</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="2">
+      <c r="B189" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="34">
         <v>8977</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="32">
         <v>44003</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="2">
+      <c r="B190" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="34">
         <v>6603</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="32">
         <v>44003</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" s="2">
+      <c r="B191" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="34">
         <v>9954</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="32">
         <v>44003</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="2">
+      <c r="B192" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="34">
         <v>2177</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="32">
         <v>44003</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="2">
+      <c r="B193" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="34">
         <v>6222</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="32">
         <v>44003</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="2">
+      <c r="B194" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="34">
         <v>4244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="32">
         <v>44003</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="2">
+      <c r="B195" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="34">
         <v>3542</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="32">
         <v>44004</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="2">
+      <c r="B196" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="34">
         <v>9944</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="32">
         <v>44004</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="2">
+      <c r="B197" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="34">
         <v>3931</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="32">
         <v>44004</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="2">
+      <c r="B198" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="34">
         <v>1596</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="32">
         <v>44004</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" s="2">
+      <c r="B199" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="34">
         <v>8982</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="32">
         <v>44004</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="2">
+      <c r="B200" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="34">
         <v>1796</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="32">
         <v>44005</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="2">
+      <c r="B201" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="34">
         <v>5588</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="32">
         <v>44005</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="2">
+      <c r="B202" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="34">
         <v>1314</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="A203" s="32">
         <v>44005</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" s="2">
+      <c r="B203" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="34">
         <v>7762</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="32">
         <v>44005</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="2">
+      <c r="B204" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="34">
         <v>4252</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="32">
         <v>44005</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" s="2">
+      <c r="B205" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="34">
         <v>2309</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="32">
         <v>44005</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="2">
+      <c r="B206" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="34">
         <v>7214</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207" s="32">
         <v>44005</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="2">
+      <c r="B207" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="34">
         <v>5690</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="32">
         <v>44005</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C208" s="2">
+      <c r="B208" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="34">
         <v>3540</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209" s="32">
         <v>44005</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C209" s="2">
+      <c r="B209" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="34">
         <v>4298</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="32">
         <v>44005</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="2">
+      <c r="B210" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="34">
         <v>9966</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211" s="32">
         <v>44006</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="2">
+      <c r="B211" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="34">
         <v>5795</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="32">
         <v>44006</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="2">
+      <c r="B212" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="34">
         <v>7277</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213" s="32">
         <v>44006</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C213" s="2">
+      <c r="B213" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="34">
         <v>4887</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="32">
         <v>44006</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="2">
+      <c r="B214" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="34">
         <v>6631</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215" s="32">
         <v>44006</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" s="2">
+      <c r="B215" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="34">
         <v>9702</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="32">
         <v>44006</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="2">
+      <c r="B216" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="34">
         <v>5111</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217" s="32">
         <v>44006</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="2">
+      <c r="B217" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="34">
         <v>2698</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="32">
         <v>44006</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="2">
+      <c r="B218" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="34">
         <v>4039</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219" s="32">
         <v>44007</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="2">
+      <c r="B219" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="34">
         <v>1952</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="32">
         <v>44007</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" s="2">
+      <c r="B220" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="34">
         <v>5987</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221" s="32">
         <v>44007</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" s="2">
+      <c r="B221" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="34">
         <v>6825</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="32">
         <v>44007</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" s="2">
+      <c r="B222" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="34">
         <v>8187</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223" s="32">
         <v>44008</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="2">
+      <c r="B223" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="34">
         <v>6354</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="32">
         <v>44008</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C224" s="2">
+      <c r="B224" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="34">
         <v>6336</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225" s="32">
         <v>44008</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="2">
+      <c r="B225" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="34">
         <v>2776</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="32">
         <v>44008</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C226" s="2">
+      <c r="B226" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="34">
         <v>2559</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227" s="32">
         <v>44008</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227" s="2">
+      <c r="B227" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="34">
         <v>3678</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="32">
         <v>44008</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="2">
+      <c r="B228" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="34">
         <v>4889</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229" s="32">
         <v>44008</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="2">
+      <c r="B229" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="34">
         <v>4778</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="32">
         <v>44008</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="2">
+      <c r="B230" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="34">
         <v>4498</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231" s="32">
         <v>44008</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C231" s="2">
+      <c r="B231" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="34">
         <v>4968</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="32">
         <v>44008</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="2">
+      <c r="B232" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="34">
         <v>8445</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233" s="32">
         <v>44008</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" s="2">
+      <c r="B233" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="34">
         <v>1947</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="32">
         <v>44009</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C234" s="2">
+      <c r="B234" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="34">
         <v>9671</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235" s="32">
         <v>44009</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C235" s="2">
+      <c r="B235" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="34">
         <v>3417</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="32">
         <v>44009</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" s="2">
+      <c r="B236" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="34">
         <v>5698</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237" s="32">
         <v>44009</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C237" s="2">
+      <c r="B237" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="34">
         <v>4712</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="32">
         <v>44009</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" s="2">
+      <c r="B238" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="34">
         <v>7412</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="A239" s="32">
         <v>44009</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" s="2">
+      <c r="B239" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="34">
         <v>8482</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240" s="32">
         <v>44009</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C240" s="2">
+      <c r="B240" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="34">
         <v>4149</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="A241" s="32">
         <v>44009</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" s="2">
+      <c r="B241" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="34">
         <v>9642</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242" s="32">
         <v>44009</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" s="2">
+      <c r="B242" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="34">
         <v>8515</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="A243" s="32">
         <v>44010</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="2">
+      <c r="B243" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="34">
         <v>3175</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244" s="32">
         <v>44010</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="2">
+      <c r="B244" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="34">
         <v>8135</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245" s="32">
         <v>44010</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" s="2">
+      <c r="B245" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="34">
         <v>4735</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246" s="32">
         <v>44010</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C246" s="2">
+      <c r="B246" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="34">
         <v>3626</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="A247" s="32">
         <v>44010</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" s="2">
+      <c r="B247" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="34">
         <v>4178</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248" s="32">
         <v>44010</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" s="2">
+      <c r="B248" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="34">
         <v>1342</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="A249" s="32">
         <v>44010</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="2">
+      <c r="B249" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="34">
         <v>4844</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250" s="32">
         <v>44010</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" s="2">
+      <c r="B250" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="34">
         <v>3666</v>
       </c>
     </row>
@@ -5088,16 +5158,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9"/>
@@ -5195,7 +5265,7 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5203,7 +5273,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5211,7 +5281,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5219,7 +5289,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5227,7 +5297,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5235,7 +5305,7 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5243,7 +5313,7 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5251,7 +5321,7 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5259,7 +5329,7 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5267,7 +5337,7 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5275,7 +5345,7 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5283,7 +5353,7 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5291,7 +5361,7 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5299,7 +5369,7 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5312,7 +5382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6F5ED-CE74-4CE9-B1D0-6C7DE172826B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5477,7 +5547,7 @@
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="45">
         <v>45008.754861111112</v>
       </c>
     </row>
@@ -8459,9 +8529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02733686-BB21-4192-9EA4-745BCCDE98E0}">
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8471,2752 +8539,2752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="32">
         <v>43983</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="B2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34">
         <v>9804</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+      <c r="A3" s="32">
         <v>43983</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="B3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34">
         <v>4783</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
+      <c r="A4" s="32">
         <v>43983</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34">
         <v>9603</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+      <c r="A5" s="32">
         <v>43983</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="34">
         <v>9785</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>43983</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34">
         <v>4127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>43983</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="37">
+      <c r="B7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34">
         <v>3397</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <v>43983</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="37">
+      <c r="B8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34">
         <v>1579</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="32">
         <v>43983</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="37">
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="34">
         <v>5191</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>43983</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="34">
         <v>4676</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="32">
         <v>43983</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="37">
+      <c r="B11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="34">
         <v>5244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>43984</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="37">
+      <c r="B12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34">
         <v>1736</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <v>43984</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="37">
+      <c r="B13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
         <v>7793</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="A14" s="32">
         <v>43984</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="37">
+      <c r="B14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="34">
         <v>7776</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>43984</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="37">
+      <c r="B15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="34">
         <v>7313</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="32">
         <v>43984</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="37">
+      <c r="B16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="34">
         <v>9529</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <v>43984</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="37">
+      <c r="B17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="34">
         <v>3567</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="32">
         <v>43984</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="B18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="34">
         <v>5168</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="A19" s="32">
         <v>43984</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="37">
+      <c r="B19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="34">
         <v>1551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="A20" s="32">
         <v>43984</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="37">
+      <c r="B20" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="34">
         <v>6125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="32">
         <v>43985</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="37">
+      <c r="B21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="34">
         <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="A22" s="32">
         <v>43985</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="37">
+      <c r="B22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="34">
         <v>4944</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="A23" s="32">
         <v>43985</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="37">
+      <c r="B23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="34">
         <v>8224</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="A24" s="32">
         <v>43985</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="37">
+      <c r="B24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="34">
         <v>9519</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="A25" s="32">
         <v>43985</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="37">
+      <c r="B25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="34">
         <v>7834</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="32">
         <v>43985</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="37">
+      <c r="B26" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="34">
         <v>9533</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="A27" s="32">
         <v>43985</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="37">
+      <c r="B27" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="34">
         <v>4813</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="32">
         <v>43985</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="37">
+      <c r="B28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="34">
         <v>2182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="A29" s="32">
         <v>43985</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="37">
+      <c r="B29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="34">
         <v>9483</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="A30" s="32">
         <v>43985</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="37">
+      <c r="B30" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="34">
         <v>1600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="32">
         <v>43985</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="37">
+      <c r="B31" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="34">
         <v>4069</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <v>43985</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="37">
+      <c r="B32" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="34">
         <v>6393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+      <c r="A33" s="32">
         <v>43985</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="B33" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="34">
         <v>7917</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+      <c r="A34" s="32">
         <v>43985</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="34">
         <v>5496</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+      <c r="A35" s="32">
         <v>43986</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="37">
+      <c r="B35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="34">
         <v>7494</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="35">
+      <c r="A36" s="32">
         <v>43986</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="37">
+      <c r="B36" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="34">
         <v>8878</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
+      <c r="A37" s="32">
         <v>43986</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="37">
+      <c r="B37" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="34">
         <v>9982</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
+      <c r="A38" s="32">
         <v>43987</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="37">
+      <c r="B38" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="34">
         <v>4271</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
+      <c r="A39" s="32">
         <v>43987</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="37">
+      <c r="B39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="34">
         <v>5016</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
+      <c r="A40" s="32">
         <v>43987</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="37">
+      <c r="B40" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="34">
         <v>5939</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="A41" s="32">
         <v>43987</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="37">
+      <c r="B41" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="34">
         <v>7038</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
+      <c r="A42" s="32">
         <v>43987</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="37">
+      <c r="B42" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="34">
         <v>8788</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="A43" s="32">
         <v>43987</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="37">
+      <c r="B43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="34">
         <v>3856</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="32">
         <v>43987</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="37">
+      <c r="B44" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="34">
         <v>8528</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="A45" s="32">
         <v>43987</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="37">
+      <c r="B45" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="34">
         <v>5912</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="32">
         <v>43988</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="37">
+      <c r="B46" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="34">
         <v>1412</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="A47" s="32">
         <v>43988</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="37">
+      <c r="B47" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="34">
         <v>6728</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
+      <c r="A48" s="32">
         <v>43988</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="37">
+      <c r="B48" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="34">
         <v>5445</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="A49" s="32">
         <v>43988</v>
       </c>
-      <c r="B49" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="37">
+      <c r="B49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="34">
         <v>7977</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+      <c r="A50" s="32">
         <v>43988</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="37">
+      <c r="B50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="34">
         <v>7015</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="A51" s="32">
         <v>43988</v>
       </c>
-      <c r="B51" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="37">
+      <c r="B51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="34">
         <v>2240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="A52" s="32">
         <v>43988</v>
       </c>
-      <c r="B52" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="37">
+      <c r="B52" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="34">
         <v>2647</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="A53" s="32">
         <v>43988</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="37">
+      <c r="B53" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="34">
         <v>7652</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="A54" s="32">
         <v>43989</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="37">
+      <c r="B54" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="34">
         <v>9489</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="A55" s="32">
         <v>43989</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="37">
+      <c r="B55" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="34">
         <v>3635</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="A56" s="32">
         <v>43989</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="37">
+      <c r="B56" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="34">
         <v>1701</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="A57" s="32">
         <v>43989</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="37">
+      <c r="B57" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="34">
         <v>3009</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
+      <c r="A58" s="32">
         <v>43989</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="37">
+      <c r="B58" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="34">
         <v>5985</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
+      <c r="A59" s="32">
         <v>43989</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="37">
+      <c r="B59" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="34">
         <v>5197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
+      <c r="A60" s="32">
         <v>43989</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="37">
+      <c r="B60" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="34">
         <v>9786</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="35">
+      <c r="A61" s="32">
         <v>43989</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="37">
+      <c r="B61" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="34">
         <v>7112</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
+      <c r="A62" s="32">
         <v>43989</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="37">
+      <c r="B62" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="34">
         <v>8425</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
+      <c r="A63" s="32">
         <v>43989</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="37">
+      <c r="B63" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="34">
         <v>7871</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
+      <c r="A64" s="32">
         <v>43989</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="37">
+      <c r="B64" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="34">
         <v>2041</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="35">
+      <c r="A65" s="32">
         <v>43989</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="37">
+      <c r="B65" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="34">
         <v>1986</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
+      <c r="A66" s="32">
         <v>43989</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="37">
+      <c r="B66" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="34">
         <v>8743</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
+      <c r="A67" s="32">
         <v>43990</v>
       </c>
-      <c r="B67" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="37">
+      <c r="B67" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="34">
         <v>2031</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="35">
+      <c r="A68" s="32">
         <v>43990</v>
       </c>
-      <c r="B68" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="37">
+      <c r="B68" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="34">
         <v>6428</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
+      <c r="A69" s="32">
         <v>43990</v>
       </c>
-      <c r="B69" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="37">
+      <c r="B69" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="34">
         <v>2270</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
+      <c r="A70" s="32">
         <v>43991</v>
       </c>
-      <c r="B70" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="37">
+      <c r="B70" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="34">
         <v>9406</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
+      <c r="A71" s="32">
         <v>43991</v>
       </c>
-      <c r="B71" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="37">
+      <c r="B71" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="34">
         <v>3282</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="35">
+      <c r="A72" s="32">
         <v>43991</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="37">
+      <c r="B72" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="34">
         <v>1456</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="35">
+      <c r="A73" s="32">
         <v>43991</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="37">
+      <c r="B73" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="34">
         <v>1246</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="35">
+      <c r="A74" s="32">
         <v>43991</v>
       </c>
-      <c r="B74" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="37">
+      <c r="B74" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="34">
         <v>7681</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="35">
+      <c r="A75" s="32">
         <v>43991</v>
       </c>
-      <c r="B75" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="37">
+      <c r="B75" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="34">
         <v>9067</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="35">
+      <c r="A76" s="32">
         <v>43991</v>
       </c>
-      <c r="B76" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="37">
+      <c r="B76" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="34">
         <v>2469</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="35">
+      <c r="A77" s="32">
         <v>43991</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="37">
+      <c r="B77" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="34">
         <v>9268</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="35">
+      <c r="A78" s="32">
         <v>43991</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="37">
+      <c r="B78" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="34">
         <v>5195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="35">
+      <c r="A79" s="32">
         <v>43991</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="37">
+      <c r="B79" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="34">
         <v>6202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="35">
+      <c r="A80" s="32">
         <v>43991</v>
       </c>
-      <c r="B80" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="37">
+      <c r="B80" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="34">
         <v>5421</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="35">
+      <c r="A81" s="32">
         <v>43992</v>
       </c>
-      <c r="B81" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="37">
+      <c r="B81" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="34">
         <v>4820</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="35">
+      <c r="A82" s="32">
         <v>43992</v>
       </c>
-      <c r="B82" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="37">
+      <c r="B82" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="34">
         <v>2018</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="35">
+      <c r="A83" s="32">
         <v>43992</v>
       </c>
-      <c r="B83" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="37">
+      <c r="B83" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="34">
         <v>9142</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="35">
+      <c r="A84" s="32">
         <v>43992</v>
       </c>
-      <c r="B84" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="37">
+      <c r="B84" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="34">
         <v>1696</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="35">
+      <c r="A85" s="32">
         <v>43992</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="37">
+      <c r="B85" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="34">
         <v>4645</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="35">
+      <c r="A86" s="32">
         <v>43992</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="37">
+      <c r="B86" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="34">
         <v>6194</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="35">
+      <c r="A87" s="32">
         <v>43992</v>
       </c>
-      <c r="B87" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="37">
+      <c r="B87" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="34">
         <v>8063</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="35">
+      <c r="A88" s="32">
         <v>43992</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="37">
+      <c r="B88" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="34">
         <v>4375</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="35">
+      <c r="A89" s="32">
         <v>43992</v>
       </c>
-      <c r="B89" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="37">
+      <c r="B89" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="34">
         <v>8384</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="35">
+      <c r="A90" s="32">
         <v>43992</v>
       </c>
-      <c r="B90" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="37">
+      <c r="B90" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="34">
         <v>9438</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="35">
+      <c r="A91" s="32">
         <v>43992</v>
       </c>
-      <c r="B91" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="37">
+      <c r="B91" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="34">
         <v>9533</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="35">
+      <c r="A92" s="32">
         <v>43992</v>
       </c>
-      <c r="B92" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="37">
+      <c r="B92" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="34">
         <v>3367</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="35">
+      <c r="A93" s="32">
         <v>43993</v>
       </c>
-      <c r="B93" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="37">
+      <c r="B93" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="34">
         <v>4915</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="35">
+      <c r="A94" s="32">
         <v>43993</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="37">
+      <c r="B94" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="34">
         <v>7484</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="35">
+      <c r="A95" s="32">
         <v>43993</v>
       </c>
-      <c r="B95" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="37">
+      <c r="B95" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="34">
         <v>9495</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="35">
+      <c r="A96" s="32">
         <v>43993</v>
       </c>
-      <c r="B96" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="37">
+      <c r="B96" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="34">
         <v>5840</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="35">
+      <c r="A97" s="32">
         <v>43993</v>
       </c>
-      <c r="B97" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="37">
+      <c r="B97" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="34">
         <v>5542</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="35">
+      <c r="A98" s="32">
         <v>43993</v>
       </c>
-      <c r="B98" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="37">
+      <c r="B98" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="34">
         <v>8998</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="35">
+      <c r="A99" s="32">
         <v>43993</v>
       </c>
-      <c r="B99" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="37">
+      <c r="B99" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="34">
         <v>1112</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="35">
+      <c r="A100" s="32">
         <v>43993</v>
       </c>
-      <c r="B100" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="37">
+      <c r="B100" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="34">
         <v>7593</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="35">
+      <c r="A101" s="32">
         <v>43993</v>
       </c>
-      <c r="B101" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="37">
+      <c r="B101" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="34">
         <v>9092</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="35">
+      <c r="A102" s="32">
         <v>43993</v>
       </c>
-      <c r="B102" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="37">
+      <c r="B102" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="34">
         <v>9454</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="35">
+      <c r="A103" s="32">
         <v>43993</v>
       </c>
-      <c r="B103" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="37">
+      <c r="B103" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="34">
         <v>5124</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="35">
+      <c r="A104" s="32">
         <v>43993</v>
       </c>
-      <c r="B104" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="37">
+      <c r="B104" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="34">
         <v>9190</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="35">
+      <c r="A105" s="32">
         <v>43994</v>
       </c>
-      <c r="B105" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="37">
+      <c r="B105" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="34">
         <v>7253</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="35">
+      <c r="A106" s="32">
         <v>43994</v>
       </c>
-      <c r="B106" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="37">
+      <c r="B106" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="34">
         <v>4347</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="35">
+      <c r="A107" s="32">
         <v>43994</v>
       </c>
-      <c r="B107" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="37">
+      <c r="B107" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="34">
         <v>9938</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="35">
+      <c r="A108" s="32">
         <v>43994</v>
       </c>
-      <c r="B108" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="37">
+      <c r="B108" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="34">
         <v>2762</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="35">
+      <c r="A109" s="32">
         <v>43994</v>
       </c>
-      <c r="B109" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="37">
+      <c r="B109" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="34">
         <v>4695</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="35">
+      <c r="A110" s="32">
         <v>43994</v>
       </c>
-      <c r="B110" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="37">
+      <c r="B110" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="34">
         <v>3509</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="35">
+      <c r="A111" s="32">
         <v>43994</v>
       </c>
-      <c r="B111" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="37">
+      <c r="B111" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="34">
         <v>7441</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="35">
+      <c r="A112" s="32">
         <v>43994</v>
       </c>
-      <c r="B112" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="37">
+      <c r="B112" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="34">
         <v>9705</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="35">
+      <c r="A113" s="32">
         <v>43995</v>
       </c>
-      <c r="B113" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="37">
+      <c r="B113" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="34">
         <v>3849</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="35">
+      <c r="A114" s="32">
         <v>43995</v>
       </c>
-      <c r="B114" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="37">
+      <c r="B114" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="34">
         <v>4891</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="35">
+      <c r="A115" s="32">
         <v>43995</v>
       </c>
-      <c r="B115" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="37">
+      <c r="B115" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="34">
         <v>4021</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="35">
+      <c r="A116" s="32">
         <v>43995</v>
       </c>
-      <c r="B116" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="37">
+      <c r="B116" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="34">
         <v>9514</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="35">
+      <c r="A117" s="32">
         <v>43995</v>
       </c>
-      <c r="B117" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="37">
+      <c r="B117" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="34">
         <v>9722</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="35">
+      <c r="A118" s="32">
         <v>43995</v>
       </c>
-      <c r="B118" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="37">
+      <c r="B118" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="34">
         <v>1336</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="35">
+      <c r="A119" s="32">
         <v>43995</v>
       </c>
-      <c r="B119" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="37">
+      <c r="B119" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="34">
         <v>2180</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="35">
+      <c r="A120" s="32">
         <v>43996</v>
       </c>
-      <c r="B120" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="37">
+      <c r="B120" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="34">
         <v>7739</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="35">
+      <c r="A121" s="32">
         <v>43996</v>
       </c>
-      <c r="B121" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="37">
+      <c r="B121" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="34">
         <v>7148</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="35">
+      <c r="A122" s="32">
         <v>43996</v>
       </c>
-      <c r="B122" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="37">
+      <c r="B122" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="34">
         <v>1241</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="35">
+      <c r="A123" s="32">
         <v>43996</v>
       </c>
-      <c r="B123" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="37">
+      <c r="B123" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="34">
         <v>7762</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="35">
+      <c r="A124" s="32">
         <v>43996</v>
       </c>
-      <c r="B124" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="37">
+      <c r="B124" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="34">
         <v>7250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="35">
+      <c r="A125" s="32">
         <v>43996</v>
       </c>
-      <c r="B125" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="37">
+      <c r="B125" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="34">
         <v>9140</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="35">
+      <c r="A126" s="32">
         <v>43996</v>
       </c>
-      <c r="B126" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="37">
+      <c r="B126" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="34">
         <v>7747</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="35">
+      <c r="A127" s="32">
         <v>43996</v>
       </c>
-      <c r="B127" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="37">
+      <c r="B127" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="34">
         <v>4915</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="35">
+      <c r="A128" s="32">
         <v>43997</v>
       </c>
-      <c r="B128" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="37">
+      <c r="B128" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="34">
         <v>1232</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="35">
+      <c r="A129" s="32">
         <v>43997</v>
       </c>
-      <c r="B129" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="37">
+      <c r="B129" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="34">
         <v>8287</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="35">
+      <c r="A130" s="32">
         <v>43997</v>
       </c>
-      <c r="B130" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="37">
+      <c r="B130" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="34">
         <v>5547</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="35">
+      <c r="A131" s="32">
         <v>43997</v>
       </c>
-      <c r="B131" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="37">
+      <c r="B131" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="34">
         <v>1740</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="35">
+      <c r="A132" s="32">
         <v>43997</v>
       </c>
-      <c r="B132" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="37">
+      <c r="B132" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="34">
         <v>3299</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="35">
+      <c r="A133" s="32">
         <v>43997</v>
       </c>
-      <c r="B133" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="37">
+      <c r="B133" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="34">
         <v>2873</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="35">
+      <c r="A134" s="32">
         <v>43997</v>
       </c>
-      <c r="B134" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="37">
+      <c r="B134" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="34">
         <v>3801</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="35">
+      <c r="A135" s="32">
         <v>43997</v>
       </c>
-      <c r="B135" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="37">
+      <c r="B135" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="34">
         <v>6374</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="35">
+      <c r="A136" s="32">
         <v>43998</v>
       </c>
-      <c r="B136" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="37">
+      <c r="B136" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="34">
         <v>5172</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="35">
+      <c r="A137" s="32">
         <v>43998</v>
       </c>
-      <c r="B137" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="37">
+      <c r="B137" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="34">
         <v>9230</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="35">
+      <c r="A138" s="32">
         <v>43998</v>
       </c>
-      <c r="B138" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="37">
+      <c r="B138" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="34">
         <v>4532</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="35">
+      <c r="A139" s="32">
         <v>43998</v>
       </c>
-      <c r="B139" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="37">
+      <c r="B139" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="34">
         <v>3762</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="35">
+      <c r="A140" s="32">
         <v>43998</v>
       </c>
-      <c r="B140" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="37">
+      <c r="B140" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="34">
         <v>3285</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="35">
+      <c r="A141" s="32">
         <v>43998</v>
       </c>
-      <c r="B141" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="37">
+      <c r="B141" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="34">
         <v>9775</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="35">
+      <c r="A142" s="32">
         <v>43998</v>
       </c>
-      <c r="B142" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="37">
+      <c r="B142" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="34">
         <v>4470</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="35">
+      <c r="A143" s="32">
         <v>43998</v>
       </c>
-      <c r="B143" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="37">
+      <c r="B143" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="34">
         <v>6690</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="35">
+      <c r="A144" s="32">
         <v>43998</v>
       </c>
-      <c r="B144" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="37">
+      <c r="B144" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="34">
         <v>6282</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="35">
+      <c r="A145" s="32">
         <v>43998</v>
       </c>
-      <c r="B145" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="37">
+      <c r="B145" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="34">
         <v>6208</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="35">
+      <c r="A146" s="32">
         <v>43998</v>
       </c>
-      <c r="B146" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="37">
+      <c r="B146" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="34">
         <v>8457</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="35">
+      <c r="A147" s="32">
         <v>43999</v>
       </c>
-      <c r="B147" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="37">
+      <c r="B147" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="34">
         <v>6130</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="35">
+      <c r="A148" s="32">
         <v>43999</v>
       </c>
-      <c r="B148" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="37">
+      <c r="B148" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="34">
         <v>7027</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="35">
+      <c r="A149" s="32">
         <v>43999</v>
       </c>
-      <c r="B149" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="37">
+      <c r="B149" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="34">
         <v>8514</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="35">
+      <c r="A150" s="32">
         <v>43999</v>
       </c>
-      <c r="B150" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="37">
+      <c r="B150" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="34">
         <v>7439</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="35">
+      <c r="A151" s="32">
         <v>43999</v>
       </c>
-      <c r="B151" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="37">
+      <c r="B151" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="34">
         <v>2070</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="35">
+      <c r="A152" s="32">
         <v>43999</v>
       </c>
-      <c r="B152" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="37">
+      <c r="B152" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="34">
         <v>1523</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="35">
+      <c r="A153" s="32">
         <v>43999</v>
       </c>
-      <c r="B153" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="37">
+      <c r="B153" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="34">
         <v>6721</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="35">
+      <c r="A154" s="32">
         <v>44000</v>
       </c>
-      <c r="B154" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" s="37">
+      <c r="B154" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="34">
         <v>4103</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="35">
+      <c r="A155" s="32">
         <v>44000</v>
       </c>
-      <c r="B155" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="37">
+      <c r="B155" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="34">
         <v>8342</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="35">
+      <c r="A156" s="32">
         <v>44000</v>
       </c>
-      <c r="B156" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="37">
+      <c r="B156" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="34">
         <v>8324</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="35">
+      <c r="A157" s="32">
         <v>44000</v>
       </c>
-      <c r="B157" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="37">
+      <c r="B157" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="34">
         <v>2910</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="35">
+      <c r="A158" s="32">
         <v>44000</v>
       </c>
-      <c r="B158" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="37">
+      <c r="B158" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="34">
         <v>5255</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="35">
+      <c r="A159" s="32">
         <v>44000</v>
       </c>
-      <c r="B159" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="37">
+      <c r="B159" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="34">
         <v>3227</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="35">
+      <c r="A160" s="32">
         <v>44000</v>
       </c>
-      <c r="B160" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="37">
+      <c r="B160" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="34">
         <v>6999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="35">
+      <c r="A161" s="32">
         <v>44000</v>
       </c>
-      <c r="B161" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" s="37">
+      <c r="B161" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="34">
         <v>5210</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="35">
+      <c r="A162" s="32">
         <v>44000</v>
       </c>
-      <c r="B162" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="37">
+      <c r="B162" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="34">
         <v>3086</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="35">
+      <c r="A163" s="32">
         <v>44000</v>
       </c>
-      <c r="B163" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="37">
+      <c r="B163" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="34">
         <v>4576</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="35">
+      <c r="A164" s="32">
         <v>44000</v>
       </c>
-      <c r="B164" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="37">
+      <c r="B164" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="34">
         <v>3747</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="35">
+      <c r="A165" s="32">
         <v>44000</v>
       </c>
-      <c r="B165" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="37">
+      <c r="B165" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="34">
         <v>4978</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="35">
+      <c r="A166" s="32">
         <v>44001</v>
       </c>
-      <c r="B166" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="37">
+      <c r="B166" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="34">
         <v>7890</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="35">
+      <c r="A167" s="32">
         <v>44001</v>
       </c>
-      <c r="B167" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="37">
+      <c r="B167" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="34">
         <v>6731</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="35">
+      <c r="A168" s="32">
         <v>44001</v>
       </c>
-      <c r="B168" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="37">
+      <c r="B168" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="34">
         <v>3555</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="35">
+      <c r="A169" s="32">
         <v>44001</v>
       </c>
-      <c r="B169" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="37">
+      <c r="B169" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="34">
         <v>5618</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="35">
+      <c r="A170" s="32">
         <v>44001</v>
       </c>
-      <c r="B170" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="37">
+      <c r="B170" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="34">
         <v>7558</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="35">
+      <c r="A171" s="32">
         <v>44001</v>
       </c>
-      <c r="B171" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="37">
+      <c r="B171" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="34">
         <v>2167</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="35">
+      <c r="A172" s="32">
         <v>44001</v>
       </c>
-      <c r="B172" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" s="37">
+      <c r="B172" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="34">
         <v>4293</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="35">
+      <c r="A173" s="32">
         <v>44001</v>
       </c>
-      <c r="B173" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="37">
+      <c r="B173" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="34">
         <v>5744</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="35">
+      <c r="A174" s="32">
         <v>44002</v>
       </c>
-      <c r="B174" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="37">
+      <c r="B174" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="34">
         <v>9941</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="35">
+      <c r="A175" s="32">
         <v>44002</v>
       </c>
-      <c r="B175" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="37">
+      <c r="B175" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="34">
         <v>7747</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="35">
+      <c r="A176" s="32">
         <v>44002</v>
       </c>
-      <c r="B176" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="37">
+      <c r="B176" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="34">
         <v>7980</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="35">
+      <c r="A177" s="32">
         <v>44002</v>
       </c>
-      <c r="B177" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="37">
+      <c r="B177" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="34">
         <v>6963</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="35">
+      <c r="A178" s="32">
         <v>44002</v>
       </c>
-      <c r="B178" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="37">
+      <c r="B178" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="34">
         <v>8321</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="35">
+      <c r="A179" s="32">
         <v>44002</v>
       </c>
-      <c r="B179" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="37">
+      <c r="B179" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="34">
         <v>1506</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="35">
+      <c r="A180" s="32">
         <v>44002</v>
       </c>
-      <c r="B180" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="37">
+      <c r="B180" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="34">
         <v>2856</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="35">
+      <c r="A181" s="32">
         <v>44002</v>
       </c>
-      <c r="B181" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="37">
+      <c r="B181" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="34">
         <v>7080</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="35">
+      <c r="A182" s="32">
         <v>44002</v>
       </c>
-      <c r="B182" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="37">
+      <c r="B182" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="34">
         <v>1148</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="35">
+      <c r="A183" s="32">
         <v>44002</v>
       </c>
-      <c r="B183" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="37">
+      <c r="B183" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="34">
         <v>5620</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="35">
+      <c r="A184" s="32">
         <v>44002</v>
       </c>
-      <c r="B184" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" s="37">
+      <c r="B184" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="34">
         <v>8004</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="35">
+      <c r="A185" s="32">
         <v>44003</v>
       </c>
-      <c r="B185" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="37">
+      <c r="B185" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="34">
         <v>7852</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="35">
+      <c r="A186" s="32">
         <v>44003</v>
       </c>
-      <c r="B186" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="37">
+      <c r="B186" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="34">
         <v>8355</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="35">
+      <c r="A187" s="32">
         <v>44003</v>
       </c>
-      <c r="B187" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="37">
+      <c r="B187" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="34">
         <v>8946</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="35">
+      <c r="A188" s="32">
         <v>44003</v>
       </c>
-      <c r="B188" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="37">
+      <c r="B188" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="34">
         <v>4936</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="35">
+      <c r="A189" s="32">
         <v>44003</v>
       </c>
-      <c r="B189" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="37">
+      <c r="B189" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="34">
         <v>8977</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="35">
+      <c r="A190" s="32">
         <v>44003</v>
       </c>
-      <c r="B190" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="37">
+      <c r="B190" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="34">
         <v>6603</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="35">
+      <c r="A191" s="32">
         <v>44003</v>
       </c>
-      <c r="B191" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" s="37">
+      <c r="B191" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="34">
         <v>9954</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="35">
+      <c r="A192" s="32">
         <v>44003</v>
       </c>
-      <c r="B192" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="37">
+      <c r="B192" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="34">
         <v>2177</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="35">
+      <c r="A193" s="32">
         <v>44003</v>
       </c>
-      <c r="B193" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="37">
+      <c r="B193" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="34">
         <v>6222</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="35">
+      <c r="A194" s="32">
         <v>44003</v>
       </c>
-      <c r="B194" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="37">
+      <c r="B194" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="34">
         <v>4244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="35">
+      <c r="A195" s="32">
         <v>44003</v>
       </c>
-      <c r="B195" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="37">
+      <c r="B195" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="34">
         <v>3542</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="35">
+      <c r="A196" s="32">
         <v>44004</v>
       </c>
-      <c r="B196" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="37">
+      <c r="B196" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="34">
         <v>9944</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="35">
+      <c r="A197" s="32">
         <v>44004</v>
       </c>
-      <c r="B197" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="37">
+      <c r="B197" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="34">
         <v>3931</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="35">
+      <c r="A198" s="32">
         <v>44004</v>
       </c>
-      <c r="B198" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="37">
+      <c r="B198" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="34">
         <v>1596</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="35">
+      <c r="A199" s="32">
         <v>44004</v>
       </c>
-      <c r="B199" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" s="37">
+      <c r="B199" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="34">
         <v>8982</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="35">
+      <c r="A200" s="32">
         <v>44004</v>
       </c>
-      <c r="B200" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="37">
+      <c r="B200" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="34">
         <v>1796</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="35">
+      <c r="A201" s="32">
         <v>44005</v>
       </c>
-      <c r="B201" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="37">
+      <c r="B201" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="34">
         <v>5588</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="35">
+      <c r="A202" s="32">
         <v>44005</v>
       </c>
-      <c r="B202" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="37">
+      <c r="B202" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="34">
         <v>1314</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="35">
+      <c r="A203" s="32">
         <v>44005</v>
       </c>
-      <c r="B203" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" s="37">
+      <c r="B203" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="34">
         <v>7762</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="35">
+      <c r="A204" s="32">
         <v>44005</v>
       </c>
-      <c r="B204" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="37">
+      <c r="B204" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="34">
         <v>4252</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="35">
+      <c r="A205" s="32">
         <v>44005</v>
       </c>
-      <c r="B205" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" s="37">
+      <c r="B205" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="34">
         <v>2309</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="35">
+      <c r="A206" s="32">
         <v>44005</v>
       </c>
-      <c r="B206" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="37">
+      <c r="B206" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="34">
         <v>7214</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="35">
+      <c r="A207" s="32">
         <v>44005</v>
       </c>
-      <c r="B207" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="37">
+      <c r="B207" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="34">
         <v>5690</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="35">
+      <c r="A208" s="32">
         <v>44005</v>
       </c>
-      <c r="B208" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C208" s="37">
+      <c r="B208" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="34">
         <v>3540</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="35">
+      <c r="A209" s="32">
         <v>44005</v>
       </c>
-      <c r="B209" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C209" s="37">
+      <c r="B209" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="34">
         <v>4298</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="35">
+      <c r="A210" s="32">
         <v>44005</v>
       </c>
-      <c r="B210" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="37">
+      <c r="B210" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="34">
         <v>9966</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="35">
+      <c r="A211" s="32">
         <v>44006</v>
       </c>
-      <c r="B211" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="37">
+      <c r="B211" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="34">
         <v>5795</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="35">
+      <c r="A212" s="32">
         <v>44006</v>
       </c>
-      <c r="B212" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="37">
+      <c r="B212" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="34">
         <v>7277</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="35">
+      <c r="A213" s="32">
         <v>44006</v>
       </c>
-      <c r="B213" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C213" s="37">
+      <c r="B213" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="34">
         <v>4887</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="35">
+      <c r="A214" s="32">
         <v>44006</v>
       </c>
-      <c r="B214" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="37">
+      <c r="B214" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="34">
         <v>6631</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="35">
+      <c r="A215" s="32">
         <v>44006</v>
       </c>
-      <c r="B215" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" s="37">
+      <c r="B215" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="34">
         <v>9702</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="35">
+      <c r="A216" s="32">
         <v>44006</v>
       </c>
-      <c r="B216" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="37">
+      <c r="B216" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="34">
         <v>5111</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="35">
+      <c r="A217" s="32">
         <v>44006</v>
       </c>
-      <c r="B217" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="37">
+      <c r="B217" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="34">
         <v>2698</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="35">
+      <c r="A218" s="32">
         <v>44006</v>
       </c>
-      <c r="B218" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="37">
+      <c r="B218" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="34">
         <v>4039</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="35">
+      <c r="A219" s="32">
         <v>44007</v>
       </c>
-      <c r="B219" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="37">
+      <c r="B219" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="34">
         <v>1952</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="35">
+      <c r="A220" s="32">
         <v>44007</v>
       </c>
-      <c r="B220" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" s="37">
+      <c r="B220" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="34">
         <v>5987</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="35">
+      <c r="A221" s="32">
         <v>44007</v>
       </c>
-      <c r="B221" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" s="37">
+      <c r="B221" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="34">
         <v>6825</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="35">
+      <c r="A222" s="32">
         <v>44007</v>
       </c>
-      <c r="B222" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" s="37">
+      <c r="B222" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="34">
         <v>8187</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="35">
+      <c r="A223" s="32">
         <v>44008</v>
       </c>
-      <c r="B223" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="37">
+      <c r="B223" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="34">
         <v>6354</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="35">
+      <c r="A224" s="32">
         <v>44008</v>
       </c>
-      <c r="B224" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C224" s="37">
+      <c r="B224" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="34">
         <v>6336</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="35">
+      <c r="A225" s="32">
         <v>44008</v>
       </c>
-      <c r="B225" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="37">
+      <c r="B225" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="34">
         <v>2776</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="35">
+      <c r="A226" s="32">
         <v>44008</v>
       </c>
-      <c r="B226" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C226" s="37">
+      <c r="B226" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="34">
         <v>2559</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="35">
+      <c r="A227" s="32">
         <v>44008</v>
       </c>
-      <c r="B227" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227" s="37">
+      <c r="B227" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="34">
         <v>3678</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="35">
+      <c r="A228" s="32">
         <v>44008</v>
       </c>
-      <c r="B228" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="37">
+      <c r="B228" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="34">
         <v>4889</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="35">
+      <c r="A229" s="32">
         <v>44008</v>
       </c>
-      <c r="B229" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="37">
+      <c r="B229" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="34">
         <v>4778</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="35">
+      <c r="A230" s="32">
         <v>44008</v>
       </c>
-      <c r="B230" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="37">
+      <c r="B230" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="34">
         <v>4498</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="35">
+      <c r="A231" s="32">
         <v>44008</v>
       </c>
-      <c r="B231" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C231" s="37">
+      <c r="B231" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="34">
         <v>4968</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="35">
+      <c r="A232" s="32">
         <v>44008</v>
       </c>
-      <c r="B232" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="37">
+      <c r="B232" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="34">
         <v>8445</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="35">
+      <c r="A233" s="32">
         <v>44008</v>
       </c>
-      <c r="B233" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" s="37">
+      <c r="B233" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="34">
         <v>1947</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="35">
+      <c r="A234" s="32">
         <v>44009</v>
       </c>
-      <c r="B234" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C234" s="37">
+      <c r="B234" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="34">
         <v>9671</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="35">
+      <c r="A235" s="32">
         <v>44009</v>
       </c>
-      <c r="B235" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C235" s="37">
+      <c r="B235" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="34">
         <v>3417</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="35">
+      <c r="A236" s="32">
         <v>44009</v>
       </c>
-      <c r="B236" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" s="37">
+      <c r="B236" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="34">
         <v>5698</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="35">
+      <c r="A237" s="32">
         <v>44009</v>
       </c>
-      <c r="B237" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C237" s="37">
+      <c r="B237" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="34">
         <v>4712</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="35">
+      <c r="A238" s="32">
         <v>44009</v>
       </c>
-      <c r="B238" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" s="37">
+      <c r="B238" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="34">
         <v>7412</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="35">
+      <c r="A239" s="32">
         <v>44009</v>
       </c>
-      <c r="B239" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" s="37">
+      <c r="B239" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="34">
         <v>8482</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="35">
+      <c r="A240" s="32">
         <v>44009</v>
       </c>
-      <c r="B240" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C240" s="37">
+      <c r="B240" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="34">
         <v>4149</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="35">
+      <c r="A241" s="32">
         <v>44009</v>
       </c>
-      <c r="B241" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" s="37">
+      <c r="B241" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="34">
         <v>9642</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="35">
+      <c r="A242" s="32">
         <v>44009</v>
       </c>
-      <c r="B242" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" s="37">
+      <c r="B242" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="34">
         <v>8515</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="35">
+      <c r="A243" s="32">
         <v>44010</v>
       </c>
-      <c r="B243" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="37">
+      <c r="B243" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="34">
         <v>3175</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="35">
+      <c r="A244" s="32">
         <v>44010</v>
       </c>
-      <c r="B244" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="37">
+      <c r="B244" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="34">
         <v>8135</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="35">
+      <c r="A245" s="32">
         <v>44010</v>
       </c>
-      <c r="B245" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" s="37">
+      <c r="B245" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="34">
         <v>4735</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="35">
+      <c r="A246" s="32">
         <v>44010</v>
       </c>
-      <c r="B246" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C246" s="37">
+      <c r="B246" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="34">
         <v>3626</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="35">
+      <c r="A247" s="32">
         <v>44010</v>
       </c>
-      <c r="B247" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" s="37">
+      <c r="B247" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="34">
         <v>4178</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="35">
+      <c r="A248" s="32">
         <v>44010</v>
       </c>
-      <c r="B248" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" s="37">
+      <c r="B248" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="34">
         <v>1342</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="35">
+      <c r="A249" s="32">
         <v>44010</v>
       </c>
-      <c r="B249" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="37">
+      <c r="B249" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="34">
         <v>4844</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="35">
+      <c r="A250" s="32">
         <v>44010</v>
       </c>
-      <c r="B250" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" s="37">
+      <c r="B250" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="34">
         <v>3666</v>
       </c>
     </row>
@@ -11231,7 +11299,7 @@
   <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16784,9 +16852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18399A3F-6000-4520-9EEE-0D4421A640DD}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16800,13 +16866,13 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>69</v>
       </c>
       <c r="F1" t="s">
@@ -16818,12 +16884,12 @@
         <v>43983</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>9804</v>
-      </c>
-      <c r="E2" s="39" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
@@ -16832,13 +16898,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>4783</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16846,10 +16912,10 @@
         <v>43983</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>9603</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -16857,10 +16923,10 @@
         <v>43983</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>9785</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16868,10 +16934,10 @@
         <v>43983</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>4127</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16879,10 +16945,10 @@
         <v>43983</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>3397</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16893,7 +16959,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>1579</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16901,32 +16967,32 @@
         <v>43983</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>5191</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>4676</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>5244</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16934,10 +17000,10 @@
         <v>43984</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>1736</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16948,44 +17014,48 @@
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>7793</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>7776</v>
+        <v>9603</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>7313</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>9529</v>
+        <v>9804</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C16" xr:uid="{18399A3F-6000-4520-9EEE-0D4421A640DD}"/>
+  <autoFilter ref="A1:C16" xr:uid="{18399A3F-6000-4520-9EEE-0D4421A640DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+      <sortCondition ref="C1:C16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -16995,8 +17065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4830405-22B8-45A8-9799-C290B10CAADD}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17202,256 +17272,256 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="19.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="40"/>
-    <col min="6" max="6" width="10.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="40"/>
-    <col min="8" max="8" width="10.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="4" width="19.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="37"/>
+    <col min="6" max="6" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="37"/>
+    <col min="8" max="8" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="40">
         <v>10000</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="39">
         <v>44101</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="41">
         <v>56285537627</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="40">
         <v>3200</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="39">
         <v>44170</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <v>58866419137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="40">
         <v>7500</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="39">
         <v>43767</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <v>79179596425</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="40">
         <v>10000</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="39">
         <v>44026</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="41">
         <v>95288512163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>3200</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="39">
         <v>43471</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <v>57181726328</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="40">
         <v>10000</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="39">
         <v>43630</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="41">
         <v>11247295455</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="40">
         <v>3200</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="39">
         <v>44192</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <v>47111914389</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>7500</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="39">
         <v>43639</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>11814954552</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="40">
         <v>3200</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="39">
         <v>43744</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>62611154618</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="40">
         <v>10000</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="39">
         <v>43953</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>57623538585</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="40">
         <v>10000</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>43665</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <v>79936918176</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>3200</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>43434</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="41">
         <v>46917625558</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="40">
         <v>7500</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="39">
         <v>43783</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <v>26517877354</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="40">
         <v>7500</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>43784</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>43657392451</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="40">
         <v>10000</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="39">
         <v>44012</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <v>97535992218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <v>7500</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <v>43667</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>79179596424</v>
       </c>
     </row>
@@ -17568,7 +17638,7 @@
         <f t="shared" si="0"/>
         <v>782951</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="42" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="4">
@@ -17587,7 +17657,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="42" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="4">

--- a/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
+++ b/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\Exercicios\Módulo 4 - Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BC22AE-7F9D-48A5-815C-78743F4D9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86258B-B267-4F79-A253-DF8DC2F6189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11316" yWindow="0" windowWidth="11724" windowHeight="12792" tabRatio="978" firstSheet="5" activeTab="6" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
+    <workbookView xWindow="11436" yWindow="0" windowWidth="11604" windowHeight="12792" tabRatio="978" firstSheet="7" activeTab="10" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl T" sheetId="16" r:id="rId1"/>
@@ -23,20 +23,18 @@
     <sheet name="Ctrl 1" sheetId="18" r:id="rId8"/>
     <sheet name="Alt C V V" sheetId="20" r:id="rId9"/>
     <sheet name="Alt C V T" sheetId="26" r:id="rId10"/>
-    <sheet name="Planilha2" sheetId="28" r:id="rId11"/>
-    <sheet name="Planilha1" sheetId="27" r:id="rId12"/>
-    <sheet name="ALT F1" sheetId="21" r:id="rId13"/>
-    <sheet name="Ctrl E" sheetId="22" r:id="rId14"/>
-    <sheet name="Shift Espaço + Shift" sheetId="23" r:id="rId15"/>
-    <sheet name="Ctrl ; &amp; Ctrl Shift ;" sheetId="25" r:id="rId16"/>
+    <sheet name="ALT F1" sheetId="21" r:id="rId11"/>
+    <sheet name="Ctrl E" sheetId="22" r:id="rId12"/>
+    <sheet name="Shift Espaço + Shift" sheetId="23" r:id="rId13"/>
+    <sheet name="Ctrl ; &amp; Ctrl Shift ;" sheetId="25" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Alt C V T'!$A$1:$A$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Alt C V V'!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'ALT F1'!$A$1:$A$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Ctrl ; &amp; Ctrl Shift ;'!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ALT F1'!$A$1:$A$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Ctrl ; &amp; Ctrl Shift ;'!$A$1:$C$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ctrl 1'!$A$1:$A$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Ctrl Alt T'!$A$1:$B$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Ctrl Alt T'!$A$1:$B$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ctrl Espaço'!$A$1:$C$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ctrl Seta'!$A$1:$C$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Ctrl Shift L'!$A$1:$C$16</definedName>
@@ -56,7 +54,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId15"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="91">
   <si>
     <t>Vendedor</t>
   </si>
@@ -346,6 +344,9 @@
   <si>
     <t>a</t>
   </si>
+  <si>
+    <t>Filipe Cayres</t>
+  </si>
 </sst>
 </file>
 
@@ -490,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -513,11 +514,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -652,6 +690,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,16 +1833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>183242</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701221</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1840,8 +1887,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB479C6-E516-4649-9470-B9D07F657C28}" name="Tabela1" displayName="Tabela1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{6AB479C6-E516-4649-9470-B9D07F657C28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB479C6-E516-4649-9470-B9D07F657C28}" name="Tabela1" displayName="Tabela1" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{6AB479C6-E516-4649-9470-B9D07F657C28}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{73C078B7-46D6-49EA-871D-E16D82B49001}" name="Data" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{877FF142-D9F3-4F0A-9372-2139DDBEA2F9}" name="Vendedor" dataDxfId="1"/>
@@ -4958,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86564475-C94C-4BAC-8A6A-7130AD288B94}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5119,35 +5166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49715552-2A08-43DD-AB6D-7C5D71CB2170}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BFB264-8C73-43E4-87F2-A9E34D662D52}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA052D-BE13-48A5-B1F8-41D5A023B83E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F7C08-0DA6-43FB-8459-A77277BAAA8F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -5378,7 +5401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6F5ED-CE74-4CE9-B1D0-6C7DE172826B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -5517,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED251FF-5AB3-4FE4-A8AF-1DF84087C6A3}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -17063,10 +17086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4830405-22B8-45A8-9799-C290B10CAADD}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17248,6 +17271,28 @@
       </c>
       <c r="C16" s="2">
         <v>9529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14375</v>
       </c>
     </row>
   </sheetData>
@@ -17269,7 +17314,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134C23FC-40DE-4F9D-B1E5-CA571A968264}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -17285,7 +17330,7 @@
     <col min="9" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -17299,8 +17344,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="40">
@@ -17314,7 +17359,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="54" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="40">
@@ -17328,7 +17373,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="40">
@@ -17342,7 +17387,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="40">
@@ -17356,7 +17401,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="54" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="40">
@@ -17370,7 +17415,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="54" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="40">
@@ -17384,7 +17429,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="54" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="40">
@@ -17399,7 +17444,7 @@
       <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="54" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="40">
@@ -17414,7 +17459,7 @@
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="54" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="40">
@@ -17428,7 +17473,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="54" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="40">
@@ -17442,7 +17487,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="40">
@@ -17456,7 +17501,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="40">
@@ -17470,7 +17515,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="40">
@@ -17484,7 +17529,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="40">
@@ -17498,7 +17543,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="54" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="40">
@@ -17511,8 +17556,8 @@
         <v>97535992218</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="40">
@@ -17525,6 +17570,7 @@
         <v>79179596424</v>
       </c>
     </row>
+    <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -17534,10 +17580,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C78CB1-7E78-43BB-BF63-48A9DD0F1A57}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17645,7 +17691,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -17680,13 +17726,16 @@
       <c r="D10" s="26" t="s">
         <v>16</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="4">
         <f>SUM(I6:I8)</f>
         <v>21</v>
       </c>
       <c r="J10" s="4">
         <f>SUM(J6:J8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -17762,6 +17811,90 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N16" s="4" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>299114</v>
+      </c>
+      <c r="C19" s="4">
+        <v>274376</v>
+      </c>
+      <c r="D19" s="4">
+        <v>201595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>170142</v>
+      </c>
+      <c r="C20" s="4">
+        <v>198400</v>
+      </c>
+      <c r="D20" s="4">
+        <v>159729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>225787</v>
+      </c>
+      <c r="C21" s="4">
+        <v>297404</v>
+      </c>
+      <c r="D21" s="4">
+        <v>169821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <v>288610</v>
+      </c>
+      <c r="C22" s="4">
+        <v>238679</v>
+      </c>
+      <c r="D22" s="4">
+        <v>251806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
+        <v>983653</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1008859</v>
+      </c>
+      <c r="D23" s="4">
+        <v>782951</v>
       </c>
     </row>
   </sheetData>

--- a/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
+++ b/2.Excel/Exercicios/Módulo 4 - Atalhos/Exercicio-atalhos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\Exercicios\Módulo 4 - Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86258B-B267-4F79-A253-DF8DC2F6189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D8E2E-7A12-4216-8968-99282F13AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11436" yWindow="0" windowWidth="11604" windowHeight="12792" tabRatio="978" firstSheet="7" activeTab="10" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
+    <workbookView xWindow="11436" yWindow="0" windowWidth="11604" windowHeight="12792" tabRatio="978" firstSheet="9" activeTab="13" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl T" sheetId="16" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="121">
   <si>
     <t>Vendedor</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Dia</t>
   </si>
   <si>
-    <t>Hota</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
@@ -346,6 +343,99 @@
   </si>
   <si>
     <t>Filipe Cayres</t>
+  </si>
+  <si>
+    <t>Martins</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Amorim</t>
+  </si>
+  <si>
+    <t>Pinheiro</t>
+  </si>
+  <si>
+    <t>Egler</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Tranjan</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>Barreto</t>
+  </si>
+  <si>
+    <t>Cunha</t>
+  </si>
+  <si>
+    <t>Matos</t>
+  </si>
+  <si>
+    <t>Bastos</t>
+  </si>
+  <si>
+    <t>Paixão</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>MARTINS</t>
+  </si>
+  <si>
+    <t>LIRA</t>
+  </si>
+  <si>
+    <t>AMORIM</t>
+  </si>
+  <si>
+    <t>PINHEIRO</t>
+  </si>
+  <si>
+    <t>EGLER</t>
+  </si>
+  <si>
+    <t>FRANÇA</t>
+  </si>
+  <si>
+    <t>TRANJAN</t>
+  </si>
+  <si>
+    <t>OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BARRETO</t>
+  </si>
+  <si>
+    <t>CUNHA</t>
+  </si>
+  <si>
+    <t>MATOS</t>
+  </si>
+  <si>
+    <t>BASTOS</t>
+  </si>
+  <si>
+    <t>PAIXÃO</t>
+  </si>
+  <si>
+    <t>TAVARES</t>
+  </si>
+  <si>
+    <t>Shift+ espaço em seguida mantém shift pressionado para mover a linha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Dia e Hora</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2331,7 @@
         <v>4783</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2255,7 +2345,7 @@
         <v>9603</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2269,7 +2359,7 @@
         <v>9785</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2283,7 +2373,7 @@
         <v>4127</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2297,7 +2387,7 @@
         <v>3397</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2333,7 +2423,7 @@
         <v>4676</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2347,7 +2437,7 @@
         <v>5244</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,7 +2451,7 @@
         <v>1736</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="48"/>
     </row>
@@ -2376,7 +2466,7 @@
         <v>7793</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2390,7 +2480,7 @@
         <v>7776</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2404,7 +2494,7 @@
         <v>7313</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2418,7 +2508,7 @@
         <v>9529</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5169,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA052D-BE13-48A5-B1F8-41D5A023B83E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5264,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F7C08-0DA6-43FB-8459-A77277BAAA8F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5276,7 +5366,7 @@
     <col min="2" max="2" width="43.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -5284,116 +5374,200 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5577,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6F5ED-CE74-4CE9-B1D0-6C7DE172826B}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5535,6 +5709,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5544,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED251FF-5AB3-4FE4-A8AF-1DF84087C6A3}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5570,9 +5749,6 @@
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="45">
-        <v>45008.754861111112</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
@@ -5588,7 +5764,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="8">
-        <v>45008</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5602,10 +5778,10 @@
         <v>4127</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12">
-        <v>0.75555555555555554</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5617,6 +5793,12 @@
       </c>
       <c r="C4" s="2">
         <v>9603</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="45">
+        <v>45284.8125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -16896,10 +17078,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -16913,10 +17095,10 @@
         <v>1579</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -17289,7 +17471,7 @@
         <v>43985</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2">
         <v>14375</v>
@@ -17335,18 +17517,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="40">
         <v>10000</v>
@@ -17360,7 +17542,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="40">
         <v>3200</v>
@@ -17374,7 +17556,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="40">
         <v>7500</v>
@@ -17388,7 +17570,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="40">
         <v>10000</v>
@@ -17402,7 +17584,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="40">
         <v>3200</v>
@@ -17416,7 +17598,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="40">
         <v>10000</v>
@@ -17430,7 +17612,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="40">
         <v>3200</v>
@@ -17445,7 +17627,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="40">
         <v>7500</v>
@@ -17460,7 +17642,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="40">
         <v>3200</v>
@@ -17474,7 +17656,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="40">
         <v>10000</v>
@@ -17488,7 +17670,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="40">
         <v>10000</v>
@@ -17502,7 +17684,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="40">
         <v>3200</v>
@@ -17516,7 +17698,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="40">
         <v>7500</v>
@@ -17530,7 +17712,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="40">
         <v>7500</v>
@@ -17544,7 +17726,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="40">
         <v>10000</v>
@@ -17558,7 +17740,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="40">
         <v>7500</v>
@@ -17685,7 +17867,7 @@
         <v>782951</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="4">
         <v>5</v>
@@ -17704,7 +17886,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G8" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="4">
         <v>9</v>
@@ -17727,7 +17909,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="4">
         <f>SUM(I6:I8)</f>
@@ -17810,7 +17992,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
